--- a/KeywordFABot/src/main/java/com/fabot/keyword/scenarios/connect_scenarios.xlsx
+++ b/KeywordFABot/src/main/java/com/fabot/keyword/scenarios/connect_scenarios.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkspace\KeywordFABot\src\main\java\com\fabot\keyword\scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielf\git\KeywordFab\KeywordFABot\src\main\java\com\fabot\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="43">
   <si>
     <t>action</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>verify user</t>
+  </si>
+  <si>
+    <t>mohankumaran</t>
+  </si>
+  <si>
+    <t>nov@2019</t>
+  </si>
+  <si>
+    <t>Welcome (Mohan Kumar)</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -805,13 +814,261 @@
         <v>24</v>
       </c>
     </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="naveenanimation20@gmail.com"/>
     <hyperlink ref="G3" r:id="rId2"/>
     <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G11" r:id="rId4" display="naveenanimation20@gmail.com"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="G12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>